--- a/analysis/5.1/best_points.xlsx
+++ b/analysis/5.1/best_points.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,10 +431,10 @@
         <v>0.1</v>
       </c>
       <c r="D3">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E3">
-        <v>187.6974</v>
+        <v>187.662</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,10 +448,10 @@
         <v>0.1</v>
       </c>
       <c r="D4">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E4">
-        <v>187.7166</v>
+        <v>187.682</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>120.1</v>
+        <v>130.1</v>
       </c>
       <c r="C5">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="D5">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="E5">
-        <v>187.8117</v>
+        <v>187.6974</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>120.1</v>
+        <v>130.1</v>
       </c>
       <c r="C6">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="D6">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E6">
-        <v>187.8362</v>
+        <v>187.7166</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,10 +499,10 @@
         <v>1.1</v>
       </c>
       <c r="D7">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E7">
-        <v>187.7582</v>
+        <v>187.8117</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -516,10 +516,10 @@
         <v>1.1</v>
       </c>
       <c r="D8">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8">
-        <v>187.7822</v>
+        <v>187.8362</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -533,10 +533,10 @@
         <v>1.1</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E9">
-        <v>187.7578</v>
+        <v>187.7582</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -547,13 +547,13 @@
         <v>120.1</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="D10">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E10">
-        <v>188.0664</v>
+        <v>187.7822</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -564,13 +564,13 @@
         <v>120.1</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="D11">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
-        <v>187.8478</v>
+        <v>187.7578</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -584,10 +584,10 @@
         <v>0.1</v>
       </c>
       <c r="D12">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E12">
-        <v>187.8747</v>
+        <v>188.0664</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>110.1</v>
+        <v>120.1</v>
       </c>
       <c r="C13">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="E13">
-        <v>192.5449</v>
+        <v>187.8478</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>40.1</v>
+        <v>120.1</v>
       </c>
       <c r="C14">
-        <v>3.1</v>
+        <v>0.1</v>
       </c>
       <c r="D14">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E14">
-        <v>192.8905</v>
+        <v>187.8747</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40.1</v>
+        <v>110.1</v>
       </c>
       <c r="C15">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="D15">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="E15">
-        <v>192.9087</v>
+        <v>192.5449</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>100.1</v>
+        <v>40.1</v>
       </c>
       <c r="C16">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="D16">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="E16">
-        <v>197.5307</v>
+        <v>192.8905</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>90.09999999999999</v>
+        <v>40.1</v>
       </c>
       <c r="C17">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="D17">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="E17">
-        <v>194.6341</v>
+        <v>192.9087</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>90.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="C18">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="D18">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E18">
-        <v>194.6641</v>
+        <v>197.5307</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>50.1</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C19">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="D19">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E19">
-        <v>197.2904</v>
+        <v>194.6341</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,15 +714,49 @@
         <v>18</v>
       </c>
       <c r="B20">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="C20">
+        <v>2.1</v>
+      </c>
+      <c r="D20">
+        <v>0.19</v>
+      </c>
+      <c r="E20">
+        <v>194.6641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>50.1</v>
+      </c>
+      <c r="C21">
+        <v>1.1</v>
+      </c>
+      <c r="D21">
+        <v>0.2</v>
+      </c>
+      <c r="E21">
+        <v>197.2904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
         <v>100.1</v>
       </c>
-      <c r="C20">
-        <v>0.1</v>
-      </c>
-      <c r="D20">
+      <c r="C22">
+        <v>0.1</v>
+      </c>
+      <c r="D22">
         <v>0.21</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>198.7817</v>
       </c>
     </row>
